--- a/2_Analysis/hypothesis_dip.xlsx
+++ b/2_Analysis/hypothesis_dip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\ParkinsonsPSSA\2_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B420D33B-2BC8-45BB-B895-0885620DC4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D493BA89-FC87-40BE-B8E9-214CF8931E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD3DE7BE-E322-454D-9A29-9D0C4C2C74A3}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>fluoxetine</t>
   </si>
   <si>
-    <t>praoxetine</t>
-  </si>
-  <si>
     <t>sertraline</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>vincristine</t>
+  </si>
+  <si>
+    <t>paroxetine</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814AA32-88E7-45BD-A319-35AF29F94341}">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +939,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -955,23 +955,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
         <v>36</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>25</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -1278,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
         <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,39 +1302,39 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1342,116 +1342,116 @@
         <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" t="s">
         <v>71</v>
-      </c>
-      <c r="B81" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
         <v>77</v>
-      </c>
-      <c r="B86" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
         <v>79</v>
-      </c>
-      <c r="B89" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
@@ -1499,26 +1499,26 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" t="s">
         <v>89</v>
-      </c>
-      <c r="B98" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1534,23 +1534,23 @@
         <v>2</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" t="s">
         <v>92</v>
-      </c>
-      <c r="B102" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1566,15 +1566,15 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" t="s">
         <v>94</v>
-      </c>
-      <c r="B105" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1582,79 +1582,79 @@
         <v>28</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" t="s">
         <v>100</v>
-      </c>
-      <c r="B115" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1890,20 +1890,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1926,14 +1926,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9FC360-8C71-450D-842B-976DC0329AD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1948,4 +1940,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2_Analysis/hypothesis_dip.xlsx
+++ b/2_Analysis/hypothesis_dip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\ParkinsonsPSSA\2_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D493BA89-FC87-40BE-B8E9-214CF8931E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8758A9-FA45-40BC-BF10-10F2209E7262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD3DE7BE-E322-454D-9A29-9D0C4C2C74A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="107">
   <si>
     <t>ingredient_name</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>paroxetine</t>
+  </si>
+  <si>
+    <t>methotrimeprazine</t>
   </si>
 </sst>
 </file>
@@ -727,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814AA32-88E7-45BD-A319-35AF29F94341}">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +998,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1890,20 +1893,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1926,6 +1929,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9FC360-8C71-450D-842B-976DC0329AD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1940,12 +1951,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2_Analysis/hypothesis_dip.xlsx
+++ b/2_Analysis/hypothesis_dip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\ParkinsonsPSSA\2_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8758A9-FA45-40BC-BF10-10F2209E7262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17129FAD-7E7F-41A6-ACB7-E45ADE433D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD3DE7BE-E322-454D-9A29-9D0C4C2C74A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="106">
   <si>
     <t>ingredient_name</t>
   </si>
@@ -155,12 +155,6 @@
     <t>itopride</t>
   </si>
   <si>
-    <t>levomepromazine</t>
-  </si>
-  <si>
-    <t>flupentixol</t>
-  </si>
-  <si>
     <t>zuclopenthixol</t>
   </si>
   <si>
@@ -188,18 +182,9 @@
     <t>chlorprothixene</t>
   </si>
   <si>
-    <t>mepazine</t>
-  </si>
-  <si>
     <t>mesoridazine</t>
   </si>
   <si>
-    <t>methoxypromazine</t>
-  </si>
-  <si>
-    <t>percyazine</t>
-  </si>
-  <si>
     <t>promazine</t>
   </si>
   <si>
@@ -357,6 +342,18 @@
   </si>
   <si>
     <t>methotrimeprazine</t>
+  </si>
+  <si>
+    <t>flupenthixol</t>
+  </si>
+  <si>
+    <t>pecazine</t>
+  </si>
+  <si>
+    <t>methopromazine</t>
+  </si>
+  <si>
+    <t>periciazine</t>
   </si>
 </sst>
 </file>
@@ -728,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814AA32-88E7-45BD-A319-35AF29F94341}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,7 +939,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -998,7 +995,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1022,7 +1019,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -1030,7 +1027,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
@@ -1038,7 +1035,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
@@ -1046,7 +1043,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>25</v>
@@ -1062,7 +1059,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
         <v>25</v>
@@ -1070,7 +1067,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -1078,7 +1075,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -1086,7 +1083,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -1110,7 +1107,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -1118,7 +1115,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -1126,7 +1123,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -1134,7 +1131,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -1142,7 +1139,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
@@ -1158,7 +1155,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
@@ -1166,7 +1163,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
@@ -1174,15 +1171,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -1198,7 +1195,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -1206,7 +1203,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -1214,7 +1211,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -1222,7 +1219,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -1230,7 +1227,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -1238,7 +1235,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -1246,7 +1243,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -1254,7 +1251,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -1270,191 +1267,191 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B82" t="s">
         <v>72</v>
-      </c>
-      <c r="B82" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
@@ -1462,7 +1459,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
@@ -1470,7 +1467,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
@@ -1478,7 +1475,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
@@ -1494,170 +1491,162 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B101" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B104" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" t="s">
         <v>95</v>
-      </c>
-      <c r="B108" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B111" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B113" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>99</v>
-      </c>
-      <c r="B115" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1893,20 +1882,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1929,14 +1918,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9FC360-8C71-450D-842B-976DC0329AD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1951,4 +1932,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2_Analysis/hypothesis_dip.xlsx
+++ b/2_Analysis/hypothesis_dip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\ParkinsonsPSSA\2_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17129FAD-7E7F-41A6-ACB7-E45ADE433D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AF362-A914-4B0E-8F35-5E4747901B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD3DE7BE-E322-454D-9A29-9D0C4C2C74A3}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>droperidol</t>
   </si>
   <si>
-    <t>thioproprazate</t>
-  </si>
-  <si>
     <t>thioproperazine</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>periciazine</t>
+  </si>
+  <si>
+    <t>thiopropazate</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814AA32-88E7-45BD-A319-35AF29F94341}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +939,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>25</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>25</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
         <v>25</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -1270,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,7 +1294,7 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1302,31 +1302,31 @@
         <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,87 +1334,87 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" t="s">
         <v>65</v>
-      </c>
-      <c r="B80" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" t="s">
         <v>71</v>
-      </c>
-      <c r="B85" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,20 +1430,20 @@
         <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" t="s">
         <v>73</v>
-      </c>
-      <c r="B88" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
@@ -1491,26 +1491,26 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" t="s">
         <v>83</v>
-      </c>
-      <c r="B97" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,23 +1526,23 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" t="s">
         <v>86</v>
-      </c>
-      <c r="B101" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1550,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,15 +1558,15 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" t="s">
         <v>88</v>
-      </c>
-      <c r="B104" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,79 +1574,79 @@
         <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" t="s">
         <v>94</v>
-      </c>
-      <c r="B114" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/2_Analysis/hypothesis_dip.xlsx
+++ b/2_Analysis/hypothesis_dip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\ParkinsonsPSSA\2_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509AF362-A914-4B0E-8F35-5E4747901B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EAA7DF-254F-47DF-9F21-248F2734F409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD3DE7BE-E322-454D-9A29-9D0C4C2C74A3}"/>
   </bookViews>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814AA32-88E7-45BD-A319-35AF29F94341}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,20 +1882,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1918,6 +1918,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9FC360-8C71-450D-842B-976DC0329AD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1932,12 +1940,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2_Analysis/hypothesis_dip.xlsx
+++ b/2_Analysis/hypothesis_dip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\ParkinsonsPSSA\2_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EAA7DF-254F-47DF-9F21-248F2734F409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA3A79-5A20-45D3-9256-14D95C03D59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD3DE7BE-E322-454D-9A29-9D0C4C2C74A3}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>hydroxyzine</t>
   </si>
   <si>
-    <t>alimemazine</t>
-  </si>
-  <si>
     <t>aceprometazine</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>thiopropazate</t>
+  </si>
+  <si>
+    <t>trimeprazine</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814AA32-88E7-45BD-A319-35AF29F94341}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +939,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
         <v>56</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
         <v>56</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
         <v>56</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
         <v>56</v>
@@ -1363,58 +1363,58 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" t="s">
         <v>64</v>
-      </c>
-      <c r="B80" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" t="s">
         <v>70</v>
-      </c>
-      <c r="B85" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1422,7 +1422,7 @@
         <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,20 +1430,20 @@
         <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
         <v>72</v>
-      </c>
-      <c r="B88" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
         <v>30</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
@@ -1491,26 +1491,26 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" t="s">
         <v>82</v>
-      </c>
-      <c r="B97" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,23 +1526,23 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" t="s">
         <v>85</v>
-      </c>
-      <c r="B101" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1550,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,15 +1558,15 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>86</v>
+      </c>
+      <c r="B104" t="s">
         <v>87</v>
-      </c>
-      <c r="B104" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,79 +1574,79 @@
         <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>92</v>
+      </c>
+      <c r="B114" t="s">
         <v>93</v>
-      </c>
-      <c r="B114" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1882,20 +1882,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1918,14 +1918,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9FC360-8C71-450D-842B-976DC0329AD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1940,4 +1932,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2_Analysis/hypothesis_dip.xlsx
+++ b/2_Analysis/hypothesis_dip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Documents\GitHub\ParkinsonsPSSA\2_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBA3A79-5A20-45D3-9256-14D95C03D59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A70C61-C1B3-496D-A67C-42FB77D88FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD3DE7BE-E322-454D-9A29-9D0C4C2C74A3}"/>
   </bookViews>
@@ -266,9 +266,6 @@
     <t>clomipramine</t>
   </si>
   <si>
-    <t>dosulepin</t>
-  </si>
-  <si>
     <t>venlafaxine</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>trimeprazine</t>
+  </si>
+  <si>
+    <t>dothiepin</t>
   </si>
 </sst>
 </file>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814AA32-88E7-45BD-A319-35AF29F94341}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +939,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
         <v>25</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
         <v>25</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
         <v>25</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s">
         <v>30</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
         <v>30</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B94" t="s">
         <v>30</v>
@@ -1491,26 +1491,26 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" t="s">
         <v>81</v>
-      </c>
-      <c r="B97" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,23 +1526,23 @@
         <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
         <v>84</v>
-      </c>
-      <c r="B101" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1550,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,15 +1558,15 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" t="s">
         <v>86</v>
-      </c>
-      <c r="B104" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,79 +1574,79 @@
         <v>28</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" t="s">
         <v>92</v>
-      </c>
-      <c r="B114" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1882,20 +1882,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="eb547250-1fcb-4361-ba2e-707ac40b9b22" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1918,6 +1918,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D9FC360-8C71-450D-842B-976DC0329AD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1932,12 +1940,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{186E9DCD-6766-48CA-B216-5CFEA9EBC6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>